--- a/test.xlsx
+++ b/test.xlsx
@@ -371,7 +371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -464,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>68</v>
